--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPM_General.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.80053267444356</v>
+        <v>0.8271820525765932</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.7877186732480409</v>
+        <v>0.820242277353684</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.7883862278262983</v>
+        <v>0.8282157915461154</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.7764851498794437</v>
+        <v>0.8376914854236106</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.8081876453848597</v>
+        <v>0.8335627481414022</v>
       </c>
     </row>
   </sheetData>
